--- a/通讯协议和流程.xlsx
+++ b/通讯协议和流程.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAC41B1-68B5-4A8F-800C-8332B35724D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEDB11-3AAA-4156-97B5-95881B23388D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>例如：单片机检测到有人立即发送“##SC010000/r/n”给树莓派，树莓派；树莓派，收到之后发送“##SC100000/r/n”给单片机，单机即受到这个命令之后，随即发送“##RD109010/r/n”给树莓派，数据代表传感器1的数据为90.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##SC500002\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温计检测到人额头靠近后会语音提示伸出舌头，同时发送 ##SC500002\r\n 告诉上位机拍舌头，上位机回复##SC500012\r\n表示舌苔拍摄完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果人脸识别失败上位机发送##SC500021\r\n，成功：##SC500011\r\n告诉单片机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +287,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -476,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -597,6 +615,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA624D-8C31-4C79-AE6E-09C28FE43AC9}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F18"/>
+      <selection activeCell="G9" sqref="G9:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1124,10 +1148,13 @@
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1136,7 +1163,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1145,7 +1172,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>42</v>
       </c>
@@ -1158,7 +1185,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="23" t="s">
         <v>26</v>
@@ -1171,7 +1198,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="22" t="s">
         <v>25</v>
@@ -1182,9 +1209,11 @@
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="22" t="s">
         <v>23</v>
@@ -1197,7 +1226,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1206,7 +1235,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="23" t="s">
         <v>38</v>
@@ -1219,7 +1248,7 @@
       <c r="F8" s="37"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
         <v>39</v>
@@ -1228,9 +1257,14 @@
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="23" t="s">
         <v>40</v>
@@ -1239,9 +1273,10 @@
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
         <v>41</v>
@@ -1250,18 +1285,20 @@
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="22" t="s">
         <v>24</v>
@@ -1272,18 +1309,20 @@
       <c r="D13" s="35"/>
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="35"/>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>33</v>
@@ -1296,7 +1335,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>35</v>
@@ -1341,10 +1380,12 @@
       <c r="G19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="D3:F18"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G9:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
